--- a/Hospiol_TestCases.xlsx
+++ b/Hospiol_TestCases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A7691A-469B-4108-AEE8-5E3E9F8B246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFBE936-5516-45A0-AD0A-3984FD86DFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="4" r:id="rId1"/>
@@ -369,32 +369,6 @@
   </si>
   <si>
     <r>
-      <t>Verify the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Add Appointment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  functionality </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Verify the </t>
     </r>
     <r>
@@ -960,6 +934,32 @@
   </si>
   <si>
     <t>It navigated to the patients overview page</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Add Appointment button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  functionality </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1098,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1127,9 +1127,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1498,7 +1495,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1529,7 +1526,7 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="124" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1560,7 +1557,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="124" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1591,7 +1588,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="124" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1622,7 +1619,7 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="93" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1653,7 +1650,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="93" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1694,11 +1691,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D7CB9F-2C15-4BD0-BD47-FEB1BFE0E6FD}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:I12"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.1796875" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" style="6" hidden="1" customWidth="1"/>
@@ -1716,7 +1713,7 @@
     <col min="15" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1757,13 +1754,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>48</v>
@@ -1794,7 +1791,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>48</v>
@@ -1825,7 +1822,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>48</v>
@@ -1856,7 +1853,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>48</v>
@@ -1887,7 +1884,7 @@
         <v>45</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>48</v>
@@ -1918,7 +1915,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>48</v>
@@ -1943,13 +1940,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>48</v>
@@ -1971,25 +1968,25 @@
         <v>18</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>19</v>
@@ -1999,16 +1996,16 @@
     </row>
     <row r="10" spans="1:11" ht="155" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>48</v>
@@ -2025,25 +2022,25 @@
     </row>
     <row r="11" spans="1:11" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>19</v>
@@ -2051,25 +2048,25 @@
     </row>
     <row r="12" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>19</v>
@@ -2077,25 +2074,25 @@
     </row>
     <row r="13" spans="1:11" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>19</v>
@@ -2103,25 +2100,25 @@
     </row>
     <row r="14" spans="1:11" ht="155" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>19</v>
@@ -2129,25 +2126,25 @@
     </row>
     <row r="15" spans="1:11" ht="124" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>19</v>
@@ -2155,25 +2152,25 @@
     </row>
     <row r="16" spans="1:11" ht="124" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>19</v>
@@ -2181,25 +2178,25 @@
     </row>
     <row r="17" spans="1:9" ht="124" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>19</v>
@@ -2207,25 +2204,25 @@
     </row>
     <row r="18" spans="1:9" ht="124" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>19</v>
@@ -2233,25 +2230,25 @@
     </row>
     <row r="19" spans="1:9" ht="124" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>19</v>
@@ -2259,25 +2256,25 @@
     </row>
     <row r="20" spans="1:9" ht="124" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>19</v>
@@ -2285,31 +2282,31 @@
     </row>
     <row r="21" spans="1:9" ht="124" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2319,7 +2316,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2329,7 +2326,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2339,7 +2336,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2358,13 +2355,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E54DD4-2981-4734-8279-91346A5129F0}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.1796875" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" style="6" hidden="1" customWidth="1"/>
@@ -2382,7 +2379,7 @@
     <col min="15" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2423,13 +2420,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>48</v>
@@ -2454,13 +2451,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>48</v>
@@ -2485,13 +2482,13 @@
         <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>48</v>
@@ -2516,13 +2513,13 @@
         <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>48</v>
@@ -2547,13 +2544,13 @@
         <v>27</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>48</v>
@@ -2578,13 +2575,13 @@
         <v>27</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>48</v>
@@ -2606,25 +2603,25 @@
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>19</v>
@@ -2637,22 +2634,22 @@
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>19</v>
@@ -2660,25 +2657,25 @@
     </row>
     <row r="10" spans="1:11" ht="124" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>19</v>
@@ -2686,25 +2683,25 @@
     </row>
     <row r="11" spans="1:11" ht="124" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>19</v>
@@ -2712,52 +2709,51 @@
     </row>
     <row r="12" spans="1:11" ht="124" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="F12" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="I12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:11" ht="155" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>19</v>
@@ -2783,7 +2779,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="155" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2793,7 +2789,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="155" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2803,7 +2799,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="155" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2813,7 +2809,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="155" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2823,7 +2819,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="155" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2833,7 +2829,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="155" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2843,8 +2839,6 @@
       <c r="H22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
